--- a/QC_Tracking_Table.xlsx
+++ b/QC_Tracking_Table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitytasmania-my.sharepoint.com/personal/lachlan_tegart_utas_edu_au/Documents/Masters Work/GolzData/For Paper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="83" documentId="8_{C1DF9F32-B44B-404B-AD3D-BA16FC6DC17A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{91F0E88F-AD34-4FBA-8DD1-B3A305EE1EC8}"/>
+  <xr:revisionPtr revIDLastSave="84" documentId="8_{309FAF76-7548-4BCD-B8B8-733436871793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E7C0E9E-79C5-44C2-B74D-AE98A26C87F1}"/>
   <bookViews>
-    <workbookView xWindow="-15195" yWindow="-18120" windowWidth="29040" windowHeight="17640" xr2:uid="{D68D218C-D349-4585-9383-81D23379D839}"/>
+    <workbookView xWindow="13605" yWindow="-18120" windowWidth="29040" windowHeight="17640" xr2:uid="{D68D218C-D349-4585-9383-81D23379D839}"/>
   </bookViews>
   <sheets>
     <sheet name="S2F4unr1QCtable" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="60">
   <si>
     <t>input</t>
   </si>
@@ -198,6 +198,21 @@
   </si>
   <si>
     <t>Table summarising the number of sequences remaining after each stage of bioinfoarmtic analysis. Each sample name includes the start and end dates of the sampling window, as well as the pollen season which spans the end of one year and the start of another. 'Input' refers to the number of sequences in each sample (R1 and R2 are the same), first filter refers to the number of sequences remaining after removing sequences wiht ambiguous bases (Ns), second filter involved removing sequences of low quality and short length (&lt;50 bp), mergers refers to the number of merged contigs remaining after merging forward and reverse reads, and chimers refers to the number of sequences (at this stage ASVs) after removing chimers.</t>
+  </si>
+  <si>
+    <t>Sep/Oct</t>
+  </si>
+  <si>
+    <t>Oct/Nov</t>
+  </si>
+  <si>
+    <t>Nov/Dec</t>
+  </si>
+  <si>
+    <t>Dec/Jan</t>
+  </si>
+  <si>
+    <t>Jan/Feb</t>
   </si>
 </sst>
 </file>
@@ -782,7 +797,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -795,7 +810,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
@@ -803,14 +817,16 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="42" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="42" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="42" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1187,24 +1203,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E7F7BFD-F7CB-45AB-B037-032EC594A31D}">
-  <dimension ref="A1:K40"/>
+  <dimension ref="A1:T40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.08984375" customWidth="1"/>
+    <col min="1" max="1" width="20.1796875" customWidth="1"/>
     <col min="2" max="2" width="10.36328125" customWidth="1"/>
-    <col min="3" max="3" width="12.90625" customWidth="1"/>
-    <col min="4" max="4" width="12.54296875" customWidth="1"/>
-    <col min="8" max="8" width="10.6328125" customWidth="1"/>
-    <col min="9" max="9" width="10.7265625" customWidth="1"/>
+    <col min="3" max="4" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.6328125" customWidth="1"/>
+    <col min="20" max="20" width="12.81640625" customWidth="1"/>
+    <col min="21" max="21" width="12.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="F1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1230,16 +1246,16 @@
       <c r="G2" t="s">
         <v>50</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="17" t="s">
         <v>52</v>
       </c>
       <c r="J2" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="20" t="s">
+      <c r="K2" s="17" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1250,7 +1266,7 @@
       <c r="B3" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="16">
         <v>44834</v>
       </c>
       <c r="D3" s="7">
@@ -1258,7 +1274,7 @@
         <v>44841</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="F3" s="5">
         <v>117617</v>
@@ -1281,1204 +1297,1207 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="20">
         <v>44841</v>
       </c>
-      <c r="D4" s="10">
-        <f t="shared" ref="D4:D19" si="0">C4+7</f>
+      <c r="D4" s="21">
+        <f t="shared" ref="D4:D36" si="0">C4+7</f>
         <v>44848</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="F4">
-        <v>79222</v>
-      </c>
-      <c r="G4">
-        <v>70924</v>
-      </c>
-      <c r="H4">
-        <v>70386</v>
-      </c>
-      <c r="I4">
-        <v>70343</v>
-      </c>
-      <c r="J4">
-        <v>58467</v>
-      </c>
-      <c r="K4" s="11">
-        <v>47365</v>
+      <c r="F4" s="19">
+        <v>116060</v>
+      </c>
+      <c r="G4" s="19">
+        <v>103152</v>
+      </c>
+      <c r="H4" s="19">
+        <v>102822</v>
+      </c>
+      <c r="I4" s="19">
+        <v>102858</v>
+      </c>
+      <c r="J4" s="19">
+        <v>89623</v>
+      </c>
+      <c r="K4" s="10">
+        <v>81470</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="20">
         <v>44848</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="21">
         <f t="shared" si="0"/>
         <v>44855</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="F5">
-        <v>67500</v>
-      </c>
-      <c r="G5">
-        <v>60702</v>
-      </c>
-      <c r="H5">
-        <v>60172</v>
-      </c>
-      <c r="I5">
-        <v>59932</v>
-      </c>
-      <c r="J5">
-        <v>49669</v>
-      </c>
-      <c r="K5" s="11">
-        <v>41891</v>
+      <c r="F5" s="19">
+        <v>127956</v>
+      </c>
+      <c r="G5" s="19">
+        <v>113005</v>
+      </c>
+      <c r="H5" s="19">
+        <v>112114</v>
+      </c>
+      <c r="I5" s="19">
+        <v>112029</v>
+      </c>
+      <c r="J5" s="19">
+        <v>91149</v>
+      </c>
+      <c r="K5" s="10">
+        <v>71559</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="20">
         <v>44855</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="21">
         <f t="shared" si="0"/>
         <v>44862</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="F6">
-        <v>142741</v>
-      </c>
-      <c r="G6">
-        <v>125281</v>
-      </c>
-      <c r="H6">
-        <v>123893</v>
-      </c>
-      <c r="I6">
-        <v>123696</v>
-      </c>
-      <c r="J6">
-        <v>98860</v>
-      </c>
-      <c r="K6" s="11">
-        <v>83576</v>
+      <c r="F6" s="19">
+        <v>133163</v>
+      </c>
+      <c r="G6" s="19">
+        <v>116633</v>
+      </c>
+      <c r="H6" s="19">
+        <v>116190</v>
+      </c>
+      <c r="I6" s="19">
+        <v>116195</v>
+      </c>
+      <c r="J6" s="19">
+        <v>98156</v>
+      </c>
+      <c r="K6" s="10">
+        <v>85301</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="20">
         <v>44862</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="21">
         <f t="shared" si="0"/>
         <v>44869</v>
       </c>
-      <c r="E7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7">
-        <v>86206</v>
-      </c>
-      <c r="G7">
-        <v>76027</v>
-      </c>
-      <c r="H7">
-        <v>75458</v>
-      </c>
-      <c r="I7">
-        <v>75415</v>
-      </c>
-      <c r="J7">
-        <v>61950</v>
-      </c>
-      <c r="K7" s="11">
-        <v>51341</v>
+      <c r="E7" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="19">
+        <v>121823</v>
+      </c>
+      <c r="G7" s="19">
+        <v>103582</v>
+      </c>
+      <c r="H7" s="19">
+        <v>101749</v>
+      </c>
+      <c r="I7" s="19">
+        <v>102793</v>
+      </c>
+      <c r="J7" s="19">
+        <v>84358</v>
+      </c>
+      <c r="K7" s="10">
+        <v>71996</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="20">
         <v>44869</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="21">
         <f t="shared" si="0"/>
         <v>44876</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="F8">
-        <v>97365</v>
-      </c>
-      <c r="G8">
-        <v>85667</v>
-      </c>
-      <c r="H8">
-        <v>85238</v>
-      </c>
-      <c r="I8">
-        <v>85218</v>
-      </c>
-      <c r="J8">
-        <v>69918</v>
-      </c>
-      <c r="K8" s="11">
-        <v>53705</v>
+      <c r="F8" s="19">
+        <v>102628</v>
+      </c>
+      <c r="G8" s="19">
+        <v>84334</v>
+      </c>
+      <c r="H8" s="19">
+        <v>83693</v>
+      </c>
+      <c r="I8" s="19">
+        <v>82075</v>
+      </c>
+      <c r="J8" s="19">
+        <v>67266</v>
+      </c>
+      <c r="K8" s="10">
+        <v>58078</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="20">
         <v>44876</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="21">
         <f t="shared" si="0"/>
         <v>44883</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="F9">
-        <v>150011</v>
-      </c>
-      <c r="G9">
-        <v>133111</v>
-      </c>
-      <c r="H9">
-        <v>132337</v>
-      </c>
-      <c r="I9">
-        <v>132789</v>
-      </c>
-      <c r="J9">
-        <v>113922</v>
-      </c>
-      <c r="K9" s="11">
-        <v>99838</v>
+      <c r="F9" s="19">
+        <v>99831</v>
+      </c>
+      <c r="G9" s="19">
+        <v>89033</v>
+      </c>
+      <c r="H9" s="19">
+        <v>88516</v>
+      </c>
+      <c r="I9" s="19">
+        <v>88247</v>
+      </c>
+      <c r="J9" s="19">
+        <v>73024</v>
+      </c>
+      <c r="K9" s="10">
+        <v>60982</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="20">
         <v>44883</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="21">
         <f t="shared" si="0"/>
         <v>44890</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="F10">
-        <v>147252</v>
-      </c>
-      <c r="G10">
-        <v>130185</v>
-      </c>
-      <c r="H10">
-        <v>129282</v>
-      </c>
-      <c r="I10">
-        <v>129095</v>
-      </c>
-      <c r="J10">
-        <v>109127</v>
-      </c>
-      <c r="K10" s="11">
-        <v>93247</v>
+      <c r="F10" s="19">
+        <v>60521</v>
+      </c>
+      <c r="G10" s="19">
+        <v>53931</v>
+      </c>
+      <c r="H10" s="19">
+        <v>53568</v>
+      </c>
+      <c r="I10" s="19">
+        <v>53256</v>
+      </c>
+      <c r="J10" s="19">
+        <v>44605</v>
+      </c>
+      <c r="K10" s="10">
+        <v>37615</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="20">
         <v>44890</v>
       </c>
-      <c r="D11" s="10">
-        <f t="shared" si="0"/>
+      <c r="D11" s="21">
+        <f>C11+7</f>
         <v>44897</v>
       </c>
-      <c r="E11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11">
-        <v>62912</v>
-      </c>
-      <c r="G11">
-        <v>54478</v>
-      </c>
-      <c r="H11">
-        <v>54413</v>
-      </c>
-      <c r="I11">
-        <v>54256</v>
-      </c>
-      <c r="J11">
-        <v>49314</v>
-      </c>
-      <c r="K11" s="11">
-        <v>46005</v>
+      <c r="E11" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="19">
+        <v>91411</v>
+      </c>
+      <c r="G11" s="19">
+        <v>72091</v>
+      </c>
+      <c r="H11" s="19">
+        <v>71725</v>
+      </c>
+      <c r="I11" s="19">
+        <v>71728</v>
+      </c>
+      <c r="J11" s="19">
+        <v>58615</v>
+      </c>
+      <c r="K11" s="10">
+        <v>49841</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="20">
         <v>44897</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="21">
         <f t="shared" si="0"/>
         <v>44904</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="F12">
-        <v>116060</v>
-      </c>
-      <c r="G12">
-        <v>103152</v>
-      </c>
-      <c r="H12">
-        <v>102822</v>
-      </c>
-      <c r="I12">
-        <v>102858</v>
-      </c>
-      <c r="J12">
-        <v>89623</v>
-      </c>
-      <c r="K12" s="11">
-        <v>81470</v>
+      <c r="F12" s="19">
+        <v>79222</v>
+      </c>
+      <c r="G12" s="19">
+        <v>70924</v>
+      </c>
+      <c r="H12" s="19">
+        <v>70386</v>
+      </c>
+      <c r="I12" s="19">
+        <v>70343</v>
+      </c>
+      <c r="J12" s="19">
+        <v>58467</v>
+      </c>
+      <c r="K12" s="10">
+        <v>47365</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="20">
         <v>44904</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="21">
         <f t="shared" si="0"/>
         <v>44911</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="F13">
-        <v>127956</v>
-      </c>
-      <c r="G13">
-        <v>113005</v>
-      </c>
-      <c r="H13">
-        <v>112114</v>
-      </c>
-      <c r="I13">
-        <v>112029</v>
-      </c>
-      <c r="J13">
-        <v>91149</v>
-      </c>
-      <c r="K13" s="11">
-        <v>71559</v>
+      <c r="F13" s="19">
+        <v>67500</v>
+      </c>
+      <c r="G13" s="19">
+        <v>60702</v>
+      </c>
+      <c r="H13" s="19">
+        <v>60172</v>
+      </c>
+      <c r="I13" s="19">
+        <v>59932</v>
+      </c>
+      <c r="J13" s="19">
+        <v>49669</v>
+      </c>
+      <c r="K13" s="10">
+        <v>41891</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="18">
+      <c r="C14" s="20">
         <v>44911</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="21">
         <f t="shared" si="0"/>
         <v>44918</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="F14">
-        <v>133163</v>
-      </c>
-      <c r="G14">
-        <v>116633</v>
-      </c>
-      <c r="H14">
-        <v>116190</v>
-      </c>
-      <c r="I14">
-        <v>116195</v>
-      </c>
-      <c r="J14">
-        <v>98156</v>
-      </c>
-      <c r="K14" s="11">
-        <v>85301</v>
+      <c r="F14" s="19">
+        <v>142741</v>
+      </c>
+      <c r="G14" s="19">
+        <v>125281</v>
+      </c>
+      <c r="H14" s="19">
+        <v>123893</v>
+      </c>
+      <c r="I14" s="19">
+        <v>123696</v>
+      </c>
+      <c r="J14" s="19">
+        <v>98860</v>
+      </c>
+      <c r="K14" s="10">
+        <v>83576</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C15" s="20">
         <v>44918</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="21">
         <f t="shared" si="0"/>
         <v>44925</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="F15">
-        <v>121823</v>
-      </c>
-      <c r="G15">
-        <v>103582</v>
-      </c>
-      <c r="H15">
-        <v>101749</v>
-      </c>
-      <c r="I15">
-        <v>102793</v>
-      </c>
-      <c r="J15">
-        <v>84358</v>
-      </c>
-      <c r="K15" s="11">
-        <v>71996</v>
+      <c r="F15" s="19">
+        <v>86206</v>
+      </c>
+      <c r="G15" s="19">
+        <v>76027</v>
+      </c>
+      <c r="H15" s="19">
+        <v>75458</v>
+      </c>
+      <c r="I15" s="19">
+        <v>75415</v>
+      </c>
+      <c r="J15" s="19">
+        <v>61950</v>
+      </c>
+      <c r="K15" s="10">
+        <v>51341</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="18">
+      <c r="C16" s="20">
         <v>44925</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="21">
         <f t="shared" si="0"/>
         <v>44932</v>
       </c>
-      <c r="E16" t="s">
-        <v>44</v>
-      </c>
-      <c r="F16">
-        <v>102628</v>
-      </c>
-      <c r="G16">
-        <v>84334</v>
-      </c>
-      <c r="H16">
-        <v>83693</v>
-      </c>
-      <c r="I16">
-        <v>82075</v>
-      </c>
-      <c r="J16">
-        <v>67266</v>
-      </c>
-      <c r="K16" s="11">
-        <v>58078</v>
+      <c r="E16" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="19">
+        <v>97365</v>
+      </c>
+      <c r="G16" s="19">
+        <v>85667</v>
+      </c>
+      <c r="H16" s="19">
+        <v>85238</v>
+      </c>
+      <c r="I16" s="19">
+        <v>85218</v>
+      </c>
+      <c r="J16" s="19">
+        <v>69918</v>
+      </c>
+      <c r="K16" s="10">
+        <v>53705</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="18">
+      <c r="C17" s="20">
         <v>44932</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="21">
         <f t="shared" si="0"/>
         <v>44939</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="F17">
-        <v>99831</v>
-      </c>
-      <c r="G17">
-        <v>89033</v>
-      </c>
-      <c r="H17">
-        <v>88516</v>
-      </c>
-      <c r="I17">
-        <v>88247</v>
-      </c>
-      <c r="J17">
-        <v>73024</v>
-      </c>
-      <c r="K17" s="11">
-        <v>60982</v>
+      <c r="F17" s="19">
+        <v>150011</v>
+      </c>
+      <c r="G17" s="19">
+        <v>133111</v>
+      </c>
+      <c r="H17" s="19">
+        <v>132337</v>
+      </c>
+      <c r="I17" s="19">
+        <v>132789</v>
+      </c>
+      <c r="J17" s="19">
+        <v>113922</v>
+      </c>
+      <c r="K17" s="10">
+        <v>99838</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="18">
+      <c r="C18" s="20">
         <v>44939</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="21">
         <f t="shared" si="0"/>
         <v>44946</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="F18">
-        <v>60521</v>
-      </c>
-      <c r="G18">
-        <v>53931</v>
-      </c>
-      <c r="H18">
-        <v>53568</v>
-      </c>
-      <c r="I18">
-        <v>53256</v>
-      </c>
-      <c r="J18">
-        <v>44605</v>
-      </c>
-      <c r="K18" s="11">
-        <v>37615</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="13" t="s">
+      <c r="F18" s="19">
+        <v>147252</v>
+      </c>
+      <c r="G18" s="19">
+        <v>130185</v>
+      </c>
+      <c r="H18" s="19">
+        <v>129282</v>
+      </c>
+      <c r="I18" s="19">
+        <v>129095</v>
+      </c>
+      <c r="J18" s="19">
+        <v>109127</v>
+      </c>
+      <c r="K18" s="10">
+        <v>93247</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A19" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="19">
+      <c r="C19" s="20">
         <v>44946</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="21">
         <f t="shared" si="0"/>
         <v>44953</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="E19" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="F19" s="13">
-        <v>91411</v>
-      </c>
-      <c r="G19" s="13">
-        <v>72091</v>
-      </c>
-      <c r="H19" s="13">
-        <v>71725</v>
-      </c>
-      <c r="I19" s="13">
-        <v>71728</v>
-      </c>
-      <c r="J19" s="13">
-        <v>58615</v>
-      </c>
-      <c r="K19" s="16">
-        <v>49841</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A20" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="5" t="s">
+      <c r="F19" s="19">
+        <v>91773</v>
+      </c>
+      <c r="G19" s="19">
+        <v>78755</v>
+      </c>
+      <c r="H19" s="19">
+        <v>78563</v>
+      </c>
+      <c r="I19" s="19">
+        <v>78494</v>
+      </c>
+      <c r="J19" s="19">
+        <v>63853</v>
+      </c>
+      <c r="K19" s="10">
+        <v>58940</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="14">
+        <v>44953</v>
+      </c>
+      <c r="D20" s="14">
+        <f t="shared" si="0"/>
+        <v>44960</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" s="12">
+        <v>62912</v>
+      </c>
+      <c r="G20" s="12">
+        <v>54478</v>
+      </c>
+      <c r="H20" s="12">
+        <v>54413</v>
+      </c>
+      <c r="I20" s="12">
+        <v>54256</v>
+      </c>
+      <c r="J20" s="12">
+        <v>49314</v>
+      </c>
+      <c r="K20" s="15">
+        <v>46005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C21" s="6">
         <v>45177</v>
       </c>
-      <c r="D20" s="7">
-        <f>C20+7</f>
+      <c r="D21" s="7">
+        <f t="shared" si="0"/>
         <v>45184</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E21" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F20" s="5">
-        <v>91773</v>
-      </c>
-      <c r="G20" s="5">
-        <v>78755</v>
-      </c>
-      <c r="H20" s="5">
-        <v>78563</v>
-      </c>
-      <c r="I20" s="5">
-        <v>78494</v>
-      </c>
-      <c r="J20" s="5">
-        <v>63853</v>
-      </c>
-      <c r="K20" s="8">
-        <v>58940</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A21" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="1">
-        <v>45184</v>
-      </c>
-      <c r="D21" s="10">
-        <f t="shared" ref="D21:D36" si="1">C21+7</f>
-        <v>45191</v>
-      </c>
-      <c r="E21" t="s">
-        <v>48</v>
-      </c>
-      <c r="F21">
+      <c r="F21" s="5">
         <v>71553</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="5">
         <v>57921</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="5">
         <v>57450</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="5">
         <v>57481</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="5">
         <v>51081</v>
       </c>
-      <c r="K21" s="11">
+      <c r="K21" s="8">
         <v>44396</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="22">
+        <v>45184</v>
+      </c>
+      <c r="D22" s="21">
+        <f t="shared" si="0"/>
         <v>45191</v>
       </c>
-      <c r="D22" s="10">
-        <f t="shared" si="1"/>
-        <v>45198</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="E22" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="F22">
-        <v>150873</v>
-      </c>
-      <c r="G22">
-        <v>131488</v>
-      </c>
-      <c r="H22">
-        <v>130720</v>
-      </c>
-      <c r="I22">
-        <v>130433</v>
-      </c>
-      <c r="J22">
-        <v>110323</v>
-      </c>
-      <c r="K22" s="11">
-        <v>93667</v>
+      <c r="F22" s="19">
+        <v>90494</v>
+      </c>
+      <c r="G22" s="19">
+        <v>76650</v>
+      </c>
+      <c r="H22" s="19">
+        <v>76181</v>
+      </c>
+      <c r="I22" s="19">
+        <v>76006</v>
+      </c>
+      <c r="J22" s="19">
+        <v>68046</v>
+      </c>
+      <c r="K22" s="10">
+        <v>59926</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="22">
+        <v>45191</v>
+      </c>
+      <c r="D23" s="21">
+        <f t="shared" si="0"/>
         <v>45198</v>
       </c>
-      <c r="D23" s="10">
-        <f t="shared" si="1"/>
-        <v>45205</v>
-      </c>
-      <c r="E23" t="s">
-        <v>41</v>
-      </c>
-      <c r="F23">
-        <v>85301</v>
-      </c>
-      <c r="G23">
-        <v>74706</v>
-      </c>
-      <c r="H23">
-        <v>74184</v>
-      </c>
-      <c r="I23">
-        <v>73907</v>
-      </c>
-      <c r="J23">
-        <v>61573</v>
-      </c>
-      <c r="K23" s="11">
-        <v>52280</v>
+      <c r="E23" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="F23" s="19">
+        <v>30164</v>
+      </c>
+      <c r="G23" s="19">
+        <v>25548</v>
+      </c>
+      <c r="H23" s="19">
+        <v>25114</v>
+      </c>
+      <c r="I23" s="19">
+        <v>25314</v>
+      </c>
+      <c r="J23" s="19">
+        <v>21598</v>
+      </c>
+      <c r="K23" s="10">
+        <v>18449</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="22">
+        <v>45198</v>
+      </c>
+      <c r="D24" s="21">
+        <f t="shared" si="0"/>
         <v>45205</v>
       </c>
-      <c r="D24" s="10">
-        <f t="shared" si="1"/>
-        <v>45212</v>
-      </c>
-      <c r="E24" t="s">
-        <v>41</v>
-      </c>
-      <c r="F24">
-        <v>96961</v>
-      </c>
-      <c r="G24">
-        <v>79811</v>
-      </c>
-      <c r="H24">
-        <v>79397</v>
-      </c>
-      <c r="I24">
-        <v>78767</v>
-      </c>
-      <c r="J24">
-        <v>69342</v>
-      </c>
-      <c r="K24" s="11">
-        <v>59936</v>
+      <c r="E24" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" s="19">
+        <v>46277</v>
+      </c>
+      <c r="G24" s="19">
+        <v>39202</v>
+      </c>
+      <c r="H24" s="19">
+        <v>38936</v>
+      </c>
+      <c r="I24" s="19">
+        <v>38861</v>
+      </c>
+      <c r="J24" s="19">
+        <v>34985</v>
+      </c>
+      <c r="K24" s="10">
+        <v>28979</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="22">
+        <v>45205</v>
+      </c>
+      <c r="D25" s="21">
+        <f t="shared" si="0"/>
         <v>45212</v>
       </c>
-      <c r="D25" s="10">
-        <f t="shared" si="1"/>
-        <v>45219</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="E25" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="F25">
-        <v>135754</v>
-      </c>
-      <c r="G25">
-        <v>119285</v>
-      </c>
-      <c r="H25">
-        <v>118250</v>
-      </c>
-      <c r="I25">
-        <v>118294</v>
-      </c>
-      <c r="J25">
-        <v>98511</v>
-      </c>
-      <c r="K25" s="11">
-        <v>74290</v>
+      <c r="F25" s="19">
+        <v>92274</v>
+      </c>
+      <c r="G25" s="19">
+        <v>78610</v>
+      </c>
+      <c r="H25" s="19">
+        <v>78093</v>
+      </c>
+      <c r="I25" s="19">
+        <v>77492</v>
+      </c>
+      <c r="J25" s="19">
+        <v>69607</v>
+      </c>
+      <c r="K25" s="10">
+        <v>57161</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="22">
+        <v>45212</v>
+      </c>
+      <c r="D26" s="21">
+        <f t="shared" si="0"/>
         <v>45219</v>
       </c>
-      <c r="D26" s="10">
-        <f t="shared" si="1"/>
-        <v>45226</v>
-      </c>
-      <c r="E26" t="s">
+      <c r="E26" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="F26">
-        <v>108452</v>
-      </c>
-      <c r="G26">
-        <v>89206</v>
-      </c>
-      <c r="H26">
-        <v>88583</v>
-      </c>
-      <c r="I26">
-        <v>88666</v>
-      </c>
-      <c r="J26">
-        <v>77384</v>
-      </c>
-      <c r="K26" s="11">
-        <v>66927</v>
+      <c r="F26" s="19">
+        <v>60713</v>
+      </c>
+      <c r="G26" s="19">
+        <v>53616</v>
+      </c>
+      <c r="H26" s="19">
+        <v>53142</v>
+      </c>
+      <c r="I26" s="19">
+        <v>53169</v>
+      </c>
+      <c r="J26" s="19">
+        <v>47018</v>
+      </c>
+      <c r="K26" s="10">
+        <v>41269</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="22">
+        <v>45219</v>
+      </c>
+      <c r="D27" s="21">
+        <f t="shared" si="0"/>
         <v>45226</v>
       </c>
-      <c r="D27" s="10">
-        <f t="shared" si="1"/>
-        <v>45233</v>
-      </c>
-      <c r="E27" t="s">
-        <v>42</v>
-      </c>
-      <c r="F27">
-        <v>101815</v>
-      </c>
-      <c r="G27">
-        <v>89414</v>
-      </c>
-      <c r="H27">
-        <v>88690</v>
-      </c>
-      <c r="I27">
-        <v>88760</v>
-      </c>
-      <c r="J27">
-        <v>74994</v>
-      </c>
-      <c r="K27" s="11">
-        <v>58984</v>
+      <c r="E27" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="F27" s="19">
+        <v>110247</v>
+      </c>
+      <c r="G27" s="19">
+        <v>96975</v>
+      </c>
+      <c r="H27" s="19">
+        <v>96099</v>
+      </c>
+      <c r="I27" s="19">
+        <v>96068</v>
+      </c>
+      <c r="J27" s="19">
+        <v>82690</v>
+      </c>
+      <c r="K27" s="10">
+        <v>66943</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="22">
+        <v>45226</v>
+      </c>
+      <c r="D28" s="21">
+        <f t="shared" si="0"/>
         <v>45233</v>
       </c>
-      <c r="D28" s="10">
-        <f t="shared" si="1"/>
-        <v>45240</v>
-      </c>
-      <c r="E28" t="s">
-        <v>42</v>
-      </c>
-      <c r="F28">
-        <v>76284</v>
-      </c>
-      <c r="G28">
-        <v>61747</v>
-      </c>
-      <c r="H28">
-        <v>61161</v>
-      </c>
-      <c r="I28">
-        <v>60867</v>
-      </c>
-      <c r="J28">
-        <v>53693</v>
-      </c>
-      <c r="K28" s="11">
-        <v>44379</v>
+      <c r="E28" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="F28" s="19">
+        <v>124943</v>
+      </c>
+      <c r="G28" s="19">
+        <v>109774</v>
+      </c>
+      <c r="H28" s="19">
+        <v>109085</v>
+      </c>
+      <c r="I28" s="19">
+        <v>108843</v>
+      </c>
+      <c r="J28" s="19">
+        <v>91182</v>
+      </c>
+      <c r="K28" s="10">
+        <v>75898</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="22">
+        <v>45233</v>
+      </c>
+      <c r="D29" s="21">
+        <f t="shared" si="0"/>
         <v>45240</v>
       </c>
-      <c r="D29" s="10">
-        <f t="shared" si="1"/>
-        <v>45247</v>
-      </c>
-      <c r="E29" t="s">
+      <c r="E29" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="F29">
-        <v>90494</v>
-      </c>
-      <c r="G29">
-        <v>76650</v>
-      </c>
-      <c r="H29">
-        <v>76181</v>
-      </c>
-      <c r="I29">
-        <v>76006</v>
-      </c>
-      <c r="J29">
-        <v>68046</v>
-      </c>
-      <c r="K29" s="11">
-        <v>59926</v>
+      <c r="F29" s="19">
+        <v>78431</v>
+      </c>
+      <c r="G29" s="19">
+        <v>67017</v>
+      </c>
+      <c r="H29" s="19">
+        <v>66655</v>
+      </c>
+      <c r="I29" s="19">
+        <v>66619</v>
+      </c>
+      <c r="J29" s="19">
+        <v>55608</v>
+      </c>
+      <c r="K29" s="10">
+        <v>47003</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="22">
+        <v>45240</v>
+      </c>
+      <c r="D30" s="21">
+        <f t="shared" si="0"/>
         <v>45247</v>
       </c>
-      <c r="D30" s="10">
-        <f t="shared" si="1"/>
-        <v>45254</v>
-      </c>
-      <c r="E30" t="s">
+      <c r="E30" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="F30">
-        <v>30164</v>
-      </c>
-      <c r="G30">
-        <v>25548</v>
-      </c>
-      <c r="H30">
-        <v>25114</v>
-      </c>
-      <c r="I30">
-        <v>25314</v>
-      </c>
-      <c r="J30">
-        <v>21598</v>
-      </c>
-      <c r="K30" s="11">
-        <v>18449</v>
+      <c r="F30" s="19">
+        <v>150873</v>
+      </c>
+      <c r="G30" s="19">
+        <v>131488</v>
+      </c>
+      <c r="H30" s="19">
+        <v>130720</v>
+      </c>
+      <c r="I30" s="19">
+        <v>130433</v>
+      </c>
+      <c r="J30" s="19">
+        <v>110323</v>
+      </c>
+      <c r="K30" s="10">
+        <v>93667</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="22">
+        <v>45247</v>
+      </c>
+      <c r="D31" s="21">
+        <f t="shared" si="0"/>
         <v>45254</v>
       </c>
-      <c r="D31" s="10">
-        <f t="shared" si="1"/>
-        <v>45261</v>
-      </c>
-      <c r="E31" t="s">
+      <c r="E31" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="F31">
-        <v>46277</v>
-      </c>
-      <c r="G31">
-        <v>39202</v>
-      </c>
-      <c r="H31">
-        <v>38936</v>
-      </c>
-      <c r="I31">
-        <v>38861</v>
-      </c>
-      <c r="J31">
-        <v>34985</v>
-      </c>
-      <c r="K31" s="11">
-        <v>28979</v>
+      <c r="F31" s="19">
+        <v>85301</v>
+      </c>
+      <c r="G31" s="19">
+        <v>74706</v>
+      </c>
+      <c r="H31" s="19">
+        <v>74184</v>
+      </c>
+      <c r="I31" s="19">
+        <v>73907</v>
+      </c>
+      <c r="J31" s="19">
+        <v>61573</v>
+      </c>
+      <c r="K31" s="10">
+        <v>52280</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="22">
+        <v>45254</v>
+      </c>
+      <c r="D32" s="21">
+        <f t="shared" si="0"/>
         <v>45261</v>
       </c>
-      <c r="D32" s="10">
-        <f t="shared" si="1"/>
+      <c r="E32" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="F32" s="19">
+        <v>96961</v>
+      </c>
+      <c r="G32" s="19">
+        <v>79811</v>
+      </c>
+      <c r="H32" s="19">
+        <v>79397</v>
+      </c>
+      <c r="I32" s="19">
+        <v>78767</v>
+      </c>
+      <c r="J32" s="19">
+        <v>69342</v>
+      </c>
+      <c r="K32" s="10">
+        <v>59936</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A33" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="22">
+        <v>45261</v>
+      </c>
+      <c r="D33" s="21">
+        <f t="shared" si="0"/>
         <v>45268</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E33" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="F32">
-        <v>92274</v>
-      </c>
-      <c r="G32">
-        <v>78610</v>
-      </c>
-      <c r="H32">
-        <v>78093</v>
-      </c>
-      <c r="I32">
-        <v>77492</v>
-      </c>
-      <c r="J32">
-        <v>69607</v>
-      </c>
-      <c r="K32" s="11">
-        <v>57161</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A33" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
+      <c r="F33" s="19">
+        <v>135754</v>
+      </c>
+      <c r="G33" s="19">
+        <v>119285</v>
+      </c>
+      <c r="H33" s="19">
+        <v>118250</v>
+      </c>
+      <c r="I33" s="19">
+        <v>118294</v>
+      </c>
+      <c r="J33" s="19">
+        <v>98511</v>
+      </c>
+      <c r="K33" s="10">
+        <v>74290</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A34" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C34" s="22">
         <v>45268</v>
       </c>
-      <c r="D33" s="10">
-        <f t="shared" si="1"/>
+      <c r="D34" s="21">
+        <f t="shared" si="0"/>
         <v>45275</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E34" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="F33">
-        <v>60713</v>
-      </c>
-      <c r="G33">
-        <v>53616</v>
-      </c>
-      <c r="H33">
-        <v>53142</v>
-      </c>
-      <c r="I33">
-        <v>53169</v>
-      </c>
-      <c r="J33">
-        <v>47018</v>
-      </c>
-      <c r="K33" s="11">
-        <v>41269</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A34" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
+      <c r="F34" s="19">
+        <v>108452</v>
+      </c>
+      <c r="G34" s="19">
+        <v>89206</v>
+      </c>
+      <c r="H34" s="19">
+        <v>88583</v>
+      </c>
+      <c r="I34" s="19">
+        <v>88666</v>
+      </c>
+      <c r="J34" s="19">
+        <v>77384</v>
+      </c>
+      <c r="K34" s="10">
+        <v>66927</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A35" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C35" s="22">
         <v>45275</v>
       </c>
-      <c r="D34" s="10">
-        <f t="shared" si="1"/>
+      <c r="D35" s="21">
+        <f t="shared" si="0"/>
         <v>45282</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E35" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="F34">
-        <v>110247</v>
-      </c>
-      <c r="G34">
-        <v>96975</v>
-      </c>
-      <c r="H34">
-        <v>96099</v>
-      </c>
-      <c r="I34">
-        <v>96068</v>
-      </c>
-      <c r="J34">
-        <v>82690</v>
-      </c>
-      <c r="K34" s="11">
-        <v>66943</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A35" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
+      <c r="F35" s="19">
+        <v>101815</v>
+      </c>
+      <c r="G35" s="19">
+        <v>89414</v>
+      </c>
+      <c r="H35" s="19">
+        <v>88690</v>
+      </c>
+      <c r="I35" s="19">
+        <v>88760</v>
+      </c>
+      <c r="J35" s="19">
+        <v>74994</v>
+      </c>
+      <c r="K35" s="10">
+        <v>58984</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B36" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C36" s="13">
         <v>45289</v>
       </c>
-      <c r="D35" s="10">
-        <f t="shared" si="1"/>
+      <c r="D36" s="14">
+        <f>C36+7</f>
         <v>45296</v>
       </c>
-      <c r="E35" t="s">
-        <v>44</v>
-      </c>
-      <c r="F35">
-        <v>124943</v>
-      </c>
-      <c r="G35">
-        <v>109774</v>
-      </c>
-      <c r="H35">
-        <v>109085</v>
-      </c>
-      <c r="I35">
-        <v>108843</v>
-      </c>
-      <c r="J35">
-        <v>91182</v>
-      </c>
-      <c r="K35" s="11">
-        <v>75898</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C36" s="14">
-        <v>45296</v>
-      </c>
-      <c r="D36" s="15">
-        <f t="shared" si="1"/>
-        <v>45303</v>
-      </c>
-      <c r="E36" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="F36" s="13">
-        <v>78431</v>
-      </c>
-      <c r="G36" s="13">
-        <v>67017</v>
-      </c>
-      <c r="H36" s="13">
-        <v>66655</v>
-      </c>
-      <c r="I36" s="13">
-        <v>66619</v>
-      </c>
-      <c r="J36" s="13">
-        <v>55608</v>
-      </c>
-      <c r="K36" s="16">
-        <v>47003</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C37" s="1"/>
-    </row>
-    <row r="40" spans="1:11" ht="409.5" x14ac:dyDescent="0.4">
-      <c r="A40" s="21" t="s">
+      <c r="E36" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F36" s="12">
+        <v>76284</v>
+      </c>
+      <c r="G36" s="12">
+        <v>61747</v>
+      </c>
+      <c r="H36" s="12">
+        <v>61161</v>
+      </c>
+      <c r="I36" s="12">
+        <v>60867</v>
+      </c>
+      <c r="J36" s="12">
+        <v>53693</v>
+      </c>
+      <c r="K36" s="15">
+        <v>44379</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T37" s="1"/>
+    </row>
+    <row r="40" spans="1:20" ht="409.5" x14ac:dyDescent="0.4">
+      <c r="A40" s="18" t="s">
         <v>54</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:I36">
+    <sortCondition ref="I3:I36"/>
+  </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="F3:K36">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
